--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
   </bookViews>
   <sheets>
-    <sheet name="TLevel" sheetId="1" r:id="rId1"/>
+    <sheet name="PassLevels" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -140,8 +140,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -550,21 +550,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -578,7 +578,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -592,12 +592,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -611,7 +611,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -662,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>6</v>
       </c>
@@ -680,7 +680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>7</v>
       </c>
@@ -689,7 +689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>8</v>
       </c>
@@ -698,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9</v>
       </c>
@@ -707,7 +707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>10</v>
       </c>
@@ -716,7 +716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>11</v>
       </c>
@@ -724,7 +724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>12</v>
       </c>
@@ -733,7 +733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>13</v>
       </c>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>14</v>
       </c>
@@ -750,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>15</v>
       </c>
@@ -759,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>16</v>
       </c>
@@ -768,7 +768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>17</v>
       </c>
@@ -776,7 +776,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>18</v>
       </c>
@@ -785,7 +785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>19</v>
       </c>
@@ -793,981 +793,981 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1783,26 +1783,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1828,7 +1826,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="225" yWindow="135" windowWidth="27915" windowHeight="12345" tabRatio="204"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,14 +130,18 @@
   </si>
   <si>
     <t>泼水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -550,1224 +550,1142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8"/>
       <c r="B8"/>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9"/>
       <c r="B9"/>
-      <c r="D9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
-        <v>6</v>
-      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10"/>
       <c r="B10"/>
-      <c r="D10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11"/>
       <c r="B11"/>
-      <c r="D11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12"/>
       <c r="B12"/>
-      <c r="D12">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13"/>
       <c r="B13"/>
-      <c r="D13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14"/>
       <c r="B14"/>
-      <c r="D14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16"/>
       <c r="B16"/>
-      <c r="D16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>13</v>
-      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17"/>
       <c r="B17"/>
-      <c r="D17">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19"/>
       <c r="B19"/>
-      <c r="D19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20"/>
       <c r="B20"/>
-      <c r="D20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>17</v>
-      </c>
-      <c r="D21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>18</v>
-      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22"/>
       <c r="B22"/>
-      <c r="D22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>19</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24"/>
       <c r="B24"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35"/>
       <c r="B35"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37"/>
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39"/>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41"/>
       <c r="B41"/>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43"/>
       <c r="B43"/>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47"/>
       <c r="B47"/>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49"/>
       <c r="B49"/>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50"/>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51"/>
       <c r="B51"/>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52"/>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53"/>
       <c r="B53"/>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54"/>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55"/>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56"/>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57"/>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58"/>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59"/>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60"/>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61"/>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62"/>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63"/>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64"/>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65"/>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66"/>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67"/>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68"/>
       <c r="B68"/>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69"/>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70"/>
       <c r="B70"/>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71"/>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72"/>
       <c r="B72"/>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73"/>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74"/>
       <c r="B74"/>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75"/>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76"/>
       <c r="B76"/>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77"/>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78"/>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79"/>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80"/>
       <c r="B80"/>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81"/>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82"/>
       <c r="B82"/>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83"/>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84"/>
       <c r="B84"/>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85"/>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86"/>
       <c r="B86"/>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87"/>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88"/>
       <c r="B88"/>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89"/>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90"/>
       <c r="B90"/>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91"/>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92"/>
       <c r="B92"/>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93"/>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94"/>
       <c r="B94"/>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95"/>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96"/>
       <c r="B96"/>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97"/>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98"/>
       <c r="B98"/>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99"/>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100"/>
       <c r="B100"/>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101"/>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102"/>
       <c r="B102"/>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103"/>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104"/>
       <c r="B104"/>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105"/>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106"/>
       <c r="B106"/>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107"/>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108"/>
       <c r="B108"/>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109"/>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110"/>
       <c r="B110"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111"/>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112"/>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113"/>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114"/>
       <c r="B114"/>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115"/>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116"/>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117"/>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118"/>
       <c r="B118"/>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119"/>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120"/>
       <c r="B120"/>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121"/>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122"/>
       <c r="B122"/>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123"/>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124"/>
       <c r="B124"/>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125"/>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126"/>
       <c r="B126"/>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127"/>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128"/>
       <c r="B128"/>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129"/>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130"/>
       <c r="B130"/>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131"/>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132"/>
       <c r="B132"/>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133"/>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134"/>
       <c r="B134"/>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135"/>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136"/>
       <c r="B136"/>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137"/>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138"/>
       <c r="B138"/>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139"/>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140"/>
       <c r="B140"/>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141"/>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142"/>
       <c r="B142"/>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143"/>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144"/>
       <c r="B144"/>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145"/>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146"/>
       <c r="B146"/>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147"/>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148"/>
       <c r="B148"/>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149"/>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150"/>
       <c r="B150"/>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151"/>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152"/>
       <c r="B152"/>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153"/>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154"/>
       <c r="B154"/>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155"/>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156"/>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157"/>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158"/>
       <c r="B158"/>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159"/>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160"/>
       <c r="B160"/>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161"/>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162"/>
       <c r="B162"/>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163"/>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164"/>
       <c r="B164"/>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165"/>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166"/>
       <c r="B166"/>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167"/>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168"/>
       <c r="B168"/>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169"/>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170"/>
       <c r="B170"/>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171"/>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172"/>
       <c r="B172"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173"/>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174"/>
       <c r="B174"/>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175"/>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176"/>
       <c r="B176"/>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177"/>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178"/>
       <c r="B178"/>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179"/>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180"/>
       <c r="B180"/>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182"/>
       <c r="B182"/>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183"/>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184"/>
       <c r="B184"/>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185"/>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186"/>
       <c r="B186"/>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187"/>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188"/>
       <c r="B188"/>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189"/>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190"/>
       <c r="B190"/>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191"/>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192"/>
       <c r="B192"/>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193"/>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194"/>
       <c r="B194"/>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195"/>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196"/>
       <c r="B196"/>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197"/>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198"/>
       <c r="B198"/>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199"/>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200"/>
       <c r="B200"/>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201"/>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202"/>
       <c r="B202"/>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203"/>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204"/>
       <c r="B204"/>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205"/>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206"/>
       <c r="B206"/>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207"/>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208"/>
       <c r="B208"/>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209"/>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210"/>
       <c r="B210"/>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211"/>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212"/>
       <c r="B212"/>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213"/>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214"/>
       <c r="B214"/>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215"/>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216"/>
       <c r="B216"/>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217"/>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218"/>
       <c r="B218"/>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219"/>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220"/>
       <c r="B220"/>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221"/>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222"/>
       <c r="B222"/>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223"/>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224"/>
       <c r="B224"/>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225"/>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226"/>
       <c r="B226"/>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227"/>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228"/>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229"/>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230"/>
       <c r="B230"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234"/>
       <c r="B234"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236"/>
       <c r="B236"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237"/>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238"/>
       <c r="B238"/>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240"/>
       <c r="B240"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267"/>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269"/>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
     </row>
-    <row r="273" spans="1:2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273"/>
     </row>
-    <row r="274" spans="1:2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
     </row>
-    <row r="275" spans="1:2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275"/>
     </row>
-    <row r="276" spans="1:2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
     </row>
-    <row r="277" spans="1:2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277"/>
     </row>
-    <row r="278" spans="1:2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
     </row>
-    <row r="279" spans="1:2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279"/>
     </row>
-    <row r="280" spans="1:2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
     </row>
-    <row r="281" spans="1:2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281"/>
     </row>
-    <row r="282" spans="1:2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
     </row>
-    <row r="283" spans="1:2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283"/>
     </row>
-    <row r="284" spans="1:2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
     </row>
-    <row r="285" spans="1:2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285"/>
     </row>
-    <row r="286" spans="1:2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
     </row>
-    <row r="287" spans="1:2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287"/>
     </row>
-    <row r="288" spans="1:2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289"/>
     </row>
-    <row r="290" spans="1:2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
     </row>
-    <row r="291" spans="1:2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
     </row>
-    <row r="295" spans="1:2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295"/>
     </row>
-    <row r="296" spans="1:2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
     </row>
@@ -1783,24 +1701,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="70" style="3" customWidth="1"/>
     <col min="2" max="8" width="8.796875" style="3"/>
     <col min="9" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -554,7 +554,7 @@
   <dimension ref="A1:D304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -654,16 +654,46 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11"/>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D304"/>
+  <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -564,7 +576,7 @@
     <col min="4" max="4" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -577,8 +589,11 @@
       <c r="D1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -591,13 +606,16 @@
       <c r="D2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -610,8 +628,11 @@
       <c r="D4" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -625,7 +646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -638,8 +659,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -653,7 +677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -667,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -681,7 +705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -695,26 +719,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
     </row>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,6 +645,9 @@
       <c r="D5">
         <v>2</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -676,6 +679,9 @@
       <c r="D7">
         <v>4</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -690,6 +696,9 @@
       <c r="D8">
         <v>5</v>
       </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -704,6 +713,9 @@
       <c r="D9">
         <v>6</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -717,6 +729,9 @@
       </c>
       <c r="D10">
         <v>7</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -646,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -680,7 +680,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -10,12 +10,12 @@
     <sheet name="PassLevels" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -146,6 +146,26 @@
   </si>
   <si>
     <t>对话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后千秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +586,7 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -663,7 +683,7 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -671,16 +691,16 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -688,16 +708,16 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>5</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -708,13 +728,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -149,23 +149,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image/GameScene/Pass/pass_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初入长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>皇后千秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>入长春宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_2</t>
+    <t>作弊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +590,7 @@
   <dimension ref="A1:E304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -691,10 +695,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -708,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -725,10 +729,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>6</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -170,6 +170,38 @@
   </si>
   <si>
     <t>作弊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图预制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E304"/>
+  <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -598,9 +630,10 @@
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -616,8 +649,11 @@
       <c r="E1" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -625,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -633,13 +669,16 @@
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -655,8 +694,11 @@
       <c r="E4" s="5" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -672,8 +714,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -689,8 +734,11 @@
       <c r="E6">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -706,8 +754,11 @@
       <c r="E7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -723,8 +774,11 @@
       <c r="E8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -740,8 +794,11 @@
       <c r="E9">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -757,27 +814,30 @@
       <c r="E10">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
     </row>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -181,27 +181,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +622,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -630,7 +630,7 @@
     <col min="1" max="2" width="50" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.796875" customWidth="1"/>
-    <col min="6" max="6" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -661,7 +661,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -815,7 +815,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -193,15 +193,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefab/map/map04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +622,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -735,7 +735,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -775,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -795,7 +795,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -145,63 +145,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image/GameScene/Pass/pass_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初入长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后千秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作弊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图预制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>对话ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初入长春宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后千秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作弊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图预制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
+    <t>章节ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -631,9 +655,10 @@
     <col min="3" max="3" width="31.09765625" customWidth="1"/>
     <col min="4" max="4" width="17.796875" customWidth="1"/>
     <col min="6" max="6" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -650,10 +675,16 @@
         <v>35</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -661,7 +692,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
@@ -670,15 +701,21 @@
         <v>36</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -692,13 +729,19 @@
         <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -715,10 +758,16 @@
         <v>1</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -735,18 +784,24 @@
         <v>33</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -755,18 +810,24 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -775,18 +836,24 @@
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -795,10 +862,16 @@
         <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -815,29 +888,35 @@
         <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16"/>
     </row>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>ChapterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +650,7 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -898,27 +902,160 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15"/>
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <v>25</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17"/>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -650,7 +650,7 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1042,7 +1042,7 @@
         <v>38</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>25</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -230,6 +230,14 @@
   </si>
   <si>
     <t>第三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +658,7 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -814,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -866,7 +874,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1022,7 +1030,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G15">
         <v>3</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -230,6 +230,18 @@
   </si>
   <si>
     <t>第三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -658,7 +670,7 @@
   <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -822,7 +834,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -848,7 +860,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -874,7 +886,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1004,7 +1016,7 @@
         <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>3</v>
@@ -1030,7 +1042,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1056,7 +1068,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <v>3</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:I304"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D5" sqref="D5:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -682,7 +686,7 @@
     <col min="8" max="8" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -707,8 +711,11 @@
       <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -734,12 +741,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
@@ -765,7 +772,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -779,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>47</v>
@@ -790,8 +797,11 @@
       <c r="H5" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -817,7 +827,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -843,7 +853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -869,7 +879,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -895,7 +905,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -921,7 +931,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -947,7 +957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -973,7 +983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -999,7 +1009,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1025,7 +1035,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1051,7 +1061,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -712,7 +712,7 @@
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -940,7 +940,7 @@
         <v>60</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>65</v>
@@ -1044,7 +1044,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>66</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -253,10 +253,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +282,14 @@
   </si>
   <si>
     <t>Image/GameScene/Pass/pass_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,7 +716,7 @@
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -753,7 +757,7 @@
         <v>57</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -781,6 +785,9 @@
       <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="I2" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
@@ -812,16 +819,19 @@
       <c r="H4" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="I4" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -830,13 +840,16 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>54</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -844,10 +857,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -865,7 +878,7 @@
         <v>54</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -893,6 +906,9 @@
       <c r="H7" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="I7" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -919,6 +935,9 @@
       <c r="H8" s="6" t="s">
         <v>54</v>
       </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -943,7 +962,10 @@
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -971,6 +993,9 @@
       <c r="H10" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
@@ -997,6 +1022,9 @@
       <c r="H11" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="I11" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
@@ -1023,6 +1051,9 @@
       <c r="H12" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="I12" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
@@ -1047,7 +1078,10 @@
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1075,6 +1109,9 @@
       <c r="H14" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="I14" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
@@ -1101,6 +1138,9 @@
       <c r="H15" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="I15" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -1127,8 +1167,11 @@
       <c r="H16" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -1151,59 +1194,62 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -165,131 +165,131 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地图预制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选秀女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步步生莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>作弊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图预制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChapterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChapterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选秀女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步步生莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,6 +371,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -716,7 +719,7 @@
   <dimension ref="A1:I305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -748,16 +751,16 @@
         <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>57</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -768,7 +771,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
@@ -777,7 +780,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>36</v>
@@ -808,19 +811,19 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -828,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -840,13 +843,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
@@ -857,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -869,13 +872,13 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
@@ -898,13 +901,13 @@
         <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
@@ -927,13 +930,13 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I8" s="4">
         <v>4</v>
@@ -944,25 +947,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -973,16 +976,16 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>59</v>
@@ -991,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -1014,13 +1017,13 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
@@ -1030,26 +1033,26 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="7">
         <v>9</v>
       </c>
-      <c r="E12" s="4">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>49</v>
+      <c r="E12" s="7">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="4">
         <v>4</v>
@@ -1060,16 +1063,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
       </c>
       <c r="E13" s="6">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>48</v>
@@ -1078,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1101,13 +1104,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="6">
         <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -1130,13 +1133,13 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I15" s="4">
         <v>3</v>
@@ -1159,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I16" s="4">
         <v>4</v>
@@ -1188,13 +1191,13 @@
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -1211,9 +1214,8 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -110,41 +110,218 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image/GameScene/Pass/pass_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作弊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泼水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogueID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初入长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后千秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图预制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapPrefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选秀女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步步生莲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image/GameScene/Pass/pass_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>关卡索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泼水</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>神树挠痒痒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉踢屁股</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽会</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵妃抄书</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新叶有毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后千秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初入长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image/GameScene/Pass/pass_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_3</t>
-  </si>
-  <si>
-    <t>绣女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作弊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泼水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DialogueID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Pass/pass_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,143 +330,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初入长春宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后千秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图预制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapPrefab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对话ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>章节名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChapterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChapterName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选秀女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步步生莲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡索引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作弊</t>
+    <t>Image/GameScene/Pass/pass_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -319,8 +380,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,13 +421,46 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -357,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +490,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -716,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I305"/>
+  <dimension ref="A1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -734,7 +864,7 @@
     <col min="9" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -742,28 +872,31 @@
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -771,33 +904,33 @@
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -811,30 +944,30 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>66</v>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -843,27 +976,30 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>67</v>
+      <c r="B6" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -872,27 +1008,30 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G6" s="6">
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
+      <c r="B7" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="6">
         <v>4</v>
@@ -901,27 +1040,30 @@
         <v>33</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>41</v>
+      <c r="B8" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -930,27 +1072,30 @@
         <v>7</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I8" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>73</v>
+      <c r="B9" s="12" t="s">
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -959,27 +1104,30 @@
         <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>40</v>
+      <c r="B10" s="12" t="s">
+        <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -988,27 +1136,30 @@
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
+      <c r="B11" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -1017,27 +1168,30 @@
         <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>41</v>
+      <c r="B12" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
@@ -1046,27 +1200,30 @@
         <v>7</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I12" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>32</v>
+      <c r="B13" s="9" t="s">
+        <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
@@ -1075,27 +1232,30 @@
         <v>33</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G13" s="6">
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>31</v>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D14" s="6">
         <v>11</v>
@@ -1104,27 +1264,30 @@
         <v>1</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" s="6">
         <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>32</v>
+      <c r="B15" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -1133,27 +1296,30 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>41</v>
+      <c r="B16" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -1162,27 +1328,30 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I16" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>40</v>
+      <c r="B17" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1191,75 +1360,75 @@
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="6">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>55</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -318,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Pass/pass_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +347,10 @@
   </si>
   <si>
     <t>Image/GameScene/Pass/pass_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +849,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
         <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -1127,7 +1127,7 @@
         <v>76</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -1159,7 +1159,7 @@
         <v>77</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -1191,7 +1191,7 @@
         <v>75</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
@@ -1223,7 +1223,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
@@ -1255,7 +1255,7 @@
         <v>70</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="6">
         <v>11</v>
@@ -1287,7 +1287,7 @@
         <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -1319,7 +1319,7 @@
         <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -1351,7 +1351,7 @@
         <v>73</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -849,7 +849,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1101,7 +1101,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>53</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -210,15 +210,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/map/map06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,10 +290,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>喂药</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>皇后千秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -314,43 +302,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image/GameScene/Pass/pass_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image/GameScene/Pass/pass_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_16</t>
+    <t>Prefab/map/map07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假怀孕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +472,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -505,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -849,7 +852,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -890,10 +893,10 @@
         <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -956,7 +959,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -964,10 +967,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -988,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -996,10 +999,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>64</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -1020,7 +1023,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1060,10 +1063,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -1072,7 +1075,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1087,12 +1090,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>78</v>
+      <c r="B9" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>88</v>
@@ -1104,13 +1107,13 @@
         <v>51</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1124,19 +1127,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -1156,10 +1159,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -1183,21 +1186,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>82</v>
+      <c r="B12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
       </c>
-      <c r="E12" s="7">
-        <v>7</v>
+      <c r="E12" s="4">
+        <v>25</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -1220,10 +1223,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
@@ -1238,7 +1241,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1252,10 +1255,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D14" s="6">
         <v>11</v>
@@ -1284,10 +1287,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -1296,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
@@ -1316,10 +1319,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -1328,7 +1331,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
@@ -1348,10 +1351,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1360,13 +1363,13 @@
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>87</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -852,7 +852,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1040,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="6">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>43</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>新叶有毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>皇后千秋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Pass/pass_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -351,6 +343,18 @@
   </si>
   <si>
     <t>Image/GameScene/Pass/pass_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -472,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,9 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -852,7 +853,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B5" sqref="B5:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1067,7 @@
         <v>67</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -1075,7 +1076,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1094,20 +1095,20 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
@@ -1122,24 +1123,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -1154,24 +1155,24 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
       </c>
       <c r="E11" s="4">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1186,24 +1187,24 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
       </c>
       <c r="E12" s="4">
-        <v>25</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>42</v>
+        <v>20</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
@@ -1222,20 +1223,20 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>78</v>
+      <c r="B13" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
-        <v>33</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>43</v>
+      <c r="E13" s="4">
+        <v>25</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G13" s="6">
         <v>3</v>
@@ -1258,7 +1259,7 @@
         <v>68</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6">
         <v>11</v>
@@ -1290,7 +1291,7 @@
         <v>69</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -1322,7 +1323,7 @@
         <v>70</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -1354,7 +1355,7 @@
         <v>71</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -170,10 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/map/map04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,27 +326,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>假怀孕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefab/map/map07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假怀孕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喂药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -853,7 +853,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -888,16 +888,16 @@
         <v>38</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -948,19 +948,19 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -968,10 +968,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -980,19 +980,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4">
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1000,10 +1000,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -1018,13 +1018,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="4">
         <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="4">
         <v>3</v>
@@ -1064,10 +1064,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -1076,13 +1076,13 @@
         <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="4">
         <v>4</v>
@@ -1096,10 +1096,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1128,10 +1128,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
@@ -1140,13 +1140,13 @@
         <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="4">
         <v>2</v>
@@ -1160,10 +1160,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
@@ -1172,13 +1172,13 @@
         <v>51</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="4">
         <v>3</v>
@@ -1192,10 +1192,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
@@ -1204,13 +1204,13 @@
         <v>20</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="4">
         <v>4</v>
@@ -1224,10 +1224,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
@@ -1242,7 +1242,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1256,10 +1256,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="6">
         <v>11</v>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="4">
         <v>2</v>
@@ -1288,10 +1288,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -1300,13 +1300,13 @@
         <v>33</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I15" s="4">
         <v>3</v>
@@ -1320,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -1332,13 +1332,13 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="4">
         <v>4</v>
@@ -1352,10 +1352,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1364,13 +1364,13 @@
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -266,10 +266,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>神树挠痒痒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>李玉踢屁股</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -302,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Pass/pass_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +347,14 @@
   </si>
   <si>
     <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕粉丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -853,7 +853,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>66</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -1076,7 +1076,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1096,19 +1096,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
@@ -1128,19 +1128,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D10" s="4">
         <v>7</v>
       </c>
       <c r="E10" s="4">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -1160,16 +1160,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D11" s="4">
         <v>8</v>
       </c>
       <c r="E11" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>52</v>
@@ -1192,16 +1192,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D12" s="7">
         <v>9</v>
       </c>
       <c r="E12" s="4">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>43</v>
@@ -1224,16 +1224,16 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
@@ -1255,17 +1255,17 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>76</v>
+      <c r="B14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="6">
         <v>11</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
+      <c r="E14" s="4">
+        <v>25</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>41</v>
@@ -1288,10 +1288,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
@@ -1320,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -1352,10 +1352,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -207,10 +207,6 @@
   </si>
   <si>
     <t>Prefab/map/map06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -266,10 +262,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>李玉踢屁股</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>幽会</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -298,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Image/GameScene/Pass/pass_11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +343,14 @@
   </si>
   <si>
     <t>Image/GameScene/Pass/pass_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新叶有毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +402,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,12 +424,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -499,9 +489,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -853,7 +840,7 @@
   <dimension ref="A1:J305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -894,10 +881,10 @@
         <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -960,18 +947,18 @@
         <v>46</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>58</v>
+      <c r="B5" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="6">
         <v>2</v>
@@ -980,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G5" s="6">
         <v>1</v>
@@ -992,18 +979,18 @@
         <v>1</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>59</v>
+      <c r="B6" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -1024,14 +1011,14 @@
         <v>2</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1044,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
@@ -1064,10 +1051,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6">
         <v>5</v>
@@ -1076,7 +1063,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
@@ -1095,11 +1082,11 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>83</v>
+      <c r="B9" s="11" t="s">
+        <v>80</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" s="4">
         <v>6</v>
@@ -1108,13 +1095,13 @@
         <v>63</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" s="4">
         <v>2</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I9" s="4">
         <v>1</v>
@@ -1127,20 +1114,20 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>7</v>
       </c>
       <c r="E10" s="4">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="G10" s="4">
         <v>2</v>
@@ -1159,20 +1146,20 @@
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>80</v>
+      <c r="B11" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="4">
+        <v>86</v>
+      </c>
+      <c r="D11" s="6">
         <v>8</v>
       </c>
       <c r="E11" s="4">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="G11" s="4">
         <v>2</v>
@@ -1191,20 +1178,20 @@
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>72</v>
+      <c r="B12" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="7">
+        <v>79</v>
+      </c>
+      <c r="D12" s="6">
         <v>9</v>
       </c>
       <c r="E12" s="4">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G12" s="4">
         <v>2</v>
@@ -1223,26 +1210,26 @@
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6">
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>20</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="6">
         <v>3</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -1255,20 +1242,20 @@
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="6">
+      <c r="D14" s="4">
         <v>11</v>
       </c>
       <c r="E14" s="4">
-        <v>25</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>41</v>
+        <v>20</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="G14" s="6">
         <v>3</v>
@@ -1287,20 +1274,20 @@
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>75</v>
+      <c r="B15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="D15" s="6">
         <v>12</v>
       </c>
-      <c r="E15" s="6">
-        <v>33</v>
+      <c r="E15" s="4">
+        <v>25</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G15" s="6">
         <v>3</v>
@@ -1319,11 +1306,11 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>68</v>
+      <c r="B16" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D16" s="6">
         <v>13</v>
@@ -1332,7 +1319,7 @@
         <v>7</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G16" s="6">
         <v>3</v>
@@ -1351,11 +1338,11 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>69</v>
+      <c r="B17" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1370,7 +1357,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绣女</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泼水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -235,14 +227,6 @@
   </si>
   <si>
     <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -282,75 +266,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image/GameScene/Pass/pass_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假怀孕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕粉丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新叶有毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御花园</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜晚长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女住处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御花园没匾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫中小路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_3</t>
+  </si>
+  <si>
     <t>Image/GameScene/Pass/pass_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image/GameScene/Pass/pass_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_6</t>
   </si>
   <si>
     <t>Image/GameScene/Pass/pass_12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Image/GameScene/Pass/pass_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Image/GameScene/Pass/pass_16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假怀孕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喂药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藕粉丸子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新叶有毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_8</t>
+    <t>Image/GameScene/Pass/pass_9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,19 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +490,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -479,22 +503,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J305"/>
+  <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -855,7 +888,7 @@
     <col min="9" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -863,31 +896,34 @@
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -895,33 +931,33 @@
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -935,414 +971,435 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="9">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="4">
+      <c r="H5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="9">
         <v>1</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="9">
         <v>3</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="9">
         <v>1</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="H6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="9">
         <v>2</v>
       </c>
-      <c r="J6" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="9">
         <v>1</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="H7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="9">
         <v>3</v>
       </c>
-      <c r="J7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="B8" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="9">
         <v>39</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="H8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="9">
         <v>4</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B9" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="6">
         <v>6</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>63</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="6">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>88</v>
+      <c r="B10" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D10" s="6">
         <v>7</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="4">
+      <c r="E10" s="6">
+        <v>75</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="H10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="6">
         <v>2</v>
       </c>
-      <c r="J10" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>86</v>
+      <c r="B11" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D11" s="6">
         <v>8</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>69</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G11" s="4">
+      <c r="F11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K11" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>79</v>
+      <c r="B12" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D12" s="6">
         <v>9</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>57</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="F12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="6">
+        <v>66</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="12">
         <v>10</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="12">
         <v>51</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="12">
         <v>3</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="4">
+        <v>64</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="12">
         <v>11</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="12">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="F14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="12">
         <v>3</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="H14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="12">
         <v>2</v>
       </c>
-      <c r="J14" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="6">
+        <v>65</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="12">
         <v>12</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="12">
         <v>25</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="12">
         <v>3</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="H15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="12">
         <v>3</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J15" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="6">
+      <c r="B16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="12">
         <v>13</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="12">
         <v>7</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="12">
         <v>3</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="H16" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="12">
         <v>4</v>
       </c>
-      <c r="J16" s="6" t="s">
-        <v>36</v>
+      <c r="J16" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>67</v>
+      <c r="B17" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1351,19 +1408,19 @@
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -366,15 +366,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Image/GameScene/Pass/pass_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_9</t>
+    <t>Image/GameScene/Pass/pass_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -873,7 +877,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1136,7 +1140,7 @@
       <c r="C9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>6</v>
       </c>
       <c r="E9" s="6">
@@ -1171,7 +1175,7 @@
       <c r="C10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>7</v>
       </c>
       <c r="E10" s="6">
@@ -1206,7 +1210,7 @@
       <c r="C11" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>8</v>
       </c>
       <c r="E11" s="6">
@@ -1241,7 +1245,7 @@
       <c r="C12" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="9">
         <v>9</v>
       </c>
       <c r="E12" s="6">
@@ -1260,7 +1264,10 @@
         <v>4</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>34</v>
+        <v>96</v>
+      </c>
+      <c r="K12" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -1268,19 +1275,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="12">
+        <v>93</v>
+      </c>
+      <c r="D13" s="9">
         <v>10</v>
       </c>
       <c r="E13" s="12">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="12">
         <v>3</v>
@@ -1300,19 +1307,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="12">
+        <v>94</v>
+      </c>
+      <c r="D14" s="9">
         <v>11</v>
       </c>
       <c r="E14" s="12">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="12">
         <v>3</v>
@@ -1335,9 +1342,9 @@
         <v>65</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D15" s="12">
+        <v>95</v>
+      </c>
+      <c r="D15" s="9">
         <v>12</v>
       </c>
       <c r="E15" s="12">
@@ -1369,7 +1376,7 @@
       <c r="C16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <v>13</v>
       </c>
       <c r="E16" s="12">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -290,95 +290,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>藕粉丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新叶有毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_3</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_4</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_5</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_6</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御花园白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春宫黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女住处黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御花园没匾白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫中小路黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春宫没天空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊没天空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Prefab/map/map07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藕粉丸子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新叶有毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御花园</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜晚长春宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫女住处</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御花园没匾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫中小路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绣坊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_3</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_4</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_5</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_6</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +885,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -889,7 +897,9 @@
     <col min="6" max="6" width="17.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.796875" style="4"/>
     <col min="8" max="8" width="12.5" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="4"/>
+    <col min="9" max="9" width="8.796875" style="4"/>
+    <col min="10" max="10" width="13.5" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -924,7 +934,7 @@
         <v>60</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -998,7 +1008,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -1019,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -1033,7 +1043,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -1054,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -1068,7 +1078,7 @@
         <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D7" s="9">
         <v>4</v>
@@ -1077,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G7" s="9">
         <v>1</v>
@@ -1089,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
@@ -1103,7 +1113,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -1112,7 +1122,7 @@
         <v>39</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -1124,7 +1134,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="K8" s="4">
         <v>4</v>
@@ -1138,7 +1148,7 @@
         <v>71</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="D9" s="9">
         <v>6</v>
@@ -1147,7 +1157,7 @@
         <v>63</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="G9" s="6">
         <v>2</v>
@@ -1159,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K9" s="4">
         <v>5</v>
@@ -1170,10 +1180,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D10" s="9">
         <v>7</v>
@@ -1194,7 +1204,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K10" s="4">
         <v>6</v>
@@ -1205,10 +1215,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D11" s="9">
         <v>8</v>
@@ -1229,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K11" s="4">
         <v>7</v>
@@ -1243,7 +1253,7 @@
         <v>69</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9">
         <v>9</v>
@@ -1252,7 +1262,7 @@
         <v>57</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
@@ -1264,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K12" s="4">
         <v>8</v>
@@ -1278,7 +1288,7 @@
         <v>64</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D13" s="9">
         <v>10</v>
@@ -1298,8 +1308,11 @@
       <c r="I13" s="12">
         <v>1</v>
       </c>
-      <c r="J13" s="12" t="s">
-        <v>29</v>
+      <c r="J13" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -1310,7 +1323,7 @@
         <v>66</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D14" s="9">
         <v>11</v>
@@ -1319,7 +1332,7 @@
         <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="G14" s="12">
         <v>3</v>
@@ -1342,7 +1355,7 @@
         <v>65</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D15" s="9">
         <v>12</v>
@@ -1351,7 +1364,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="G15" s="12">
         <v>3</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>绣女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>作弊</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,10 +155,6 @@
   </si>
   <si>
     <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -370,14 +362,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>长春宫没天空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绣坊没天空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/map/map09</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -387,6 +371,30 @@
   </si>
   <si>
     <t>Prefab/map/map07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永和宫白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春宫白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储秀宫夜晚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,7 +893,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -910,31 +918,31 @@
         <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -945,25 +953,25 @@
         <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -985,19 +993,19 @@
         <v>23</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -1005,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -1017,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" s="9">
         <v>1</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -1040,10 +1048,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="9">
         <v>3</v>
@@ -1052,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" s="9">
         <v>2</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -1075,10 +1083,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="9">
         <v>4</v>
@@ -1087,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G7" s="9">
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="9">
         <v>3</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
@@ -1110,10 +1118,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="9">
         <v>5</v>
@@ -1122,19 +1130,19 @@
         <v>39</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" s="9">
         <v>4</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K8" s="4">
         <v>4</v>
@@ -1145,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="9">
         <v>6</v>
@@ -1163,13 +1171,13 @@
         <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9" s="4">
         <v>5</v>
@@ -1180,10 +1188,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="9">
         <v>7</v>
@@ -1192,19 +1200,19 @@
         <v>75</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G10" s="6">
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10" s="6">
         <v>2</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K10" s="4">
         <v>6</v>
@@ -1215,10 +1223,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="9">
         <v>8</v>
@@ -1227,19 +1235,19 @@
         <v>69</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G11" s="6">
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I11" s="6">
         <v>3</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K11" s="4">
         <v>7</v>
@@ -1250,10 +1258,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="9">
         <v>9</v>
@@ -1262,19 +1270,19 @@
         <v>57</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I12" s="6">
         <v>4</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K12" s="4">
         <v>8</v>
@@ -1285,10 +1293,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="9">
         <v>10</v>
@@ -1297,19 +1305,19 @@
         <v>20</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="12">
         <v>3</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I13" s="12">
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K13" s="4">
         <v>9</v>
@@ -1320,10 +1328,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="9">
         <v>11</v>
@@ -1332,19 +1340,22 @@
         <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G14" s="12">
         <v>3</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I14" s="12">
         <v>2</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>28</v>
+        <v>95</v>
+      </c>
+      <c r="K14" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1352,10 +1363,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="9">
         <v>12</v>
@@ -1364,19 +1375,22 @@
         <v>25</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G15" s="12">
         <v>3</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="12">
         <v>3</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>29</v>
+        <v>100</v>
+      </c>
+      <c r="K15" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -1384,10 +1398,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D16" s="9">
         <v>13</v>
@@ -1396,19 +1410,19 @@
         <v>7</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G16" s="12">
         <v>3</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I16" s="12">
         <v>4</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -1416,10 +1430,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4">
         <v>0</v>
@@ -1428,19 +1442,19 @@
         <v>25</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -170,14 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第一章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ChapterID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,27 +178,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>第三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefab/map/map06</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Prefab/map/map05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第四章</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -238,163 +214,207 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>皇后千秋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初入长春宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊比赛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假怀孕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喂药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藕粉丸子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新叶有毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_3</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_4</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_5</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_6</t>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊晚上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库房黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御花园白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春宫黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫女住处黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>御花园没匾白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宫中小路黄昏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永和宫白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefab/map/map10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长春宫白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绣坊白天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储秀宫夜晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神树挠痒痒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李玉踢屁股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>幽会</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>贵妃抄书</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>皇后千秋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初入长春宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绣坊比赛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假怀孕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>喂药</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藕粉丸子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新叶有毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_3</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_4</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_5</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_6</t>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Image/GameScene/Pass/pass_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绣坊晚上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>库房黄昏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御花园白天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春宫黄昏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫女住处黄昏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>御花园没匾白天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宫中小路黄昏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>永和宫白天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefab/map/map10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长春宫白天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绣坊白天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>储秀宫夜晚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皇后振作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/Pass/pass_10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +466,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,12 +477,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9BBB59"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -510,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -526,7 +540,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -535,19 +555,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,7 +908,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -930,19 +945,19 @@
         <v>35</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -1005,39 +1020,39 @@
         <v>42</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="9">
+      <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="8">
         <v>2</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="F5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="9">
+      <c r="H5" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>87</v>
+      <c r="J5" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="K5" s="4">
         <v>1</v>
@@ -1047,32 +1062,32 @@
       <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="B6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8">
         <v>3</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>1</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="9">
+      <c r="H6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="8">
         <v>2</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>88</v>
+      <c r="J6" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="K6" s="4">
         <v>2</v>
@@ -1082,32 +1097,32 @@
       <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>0</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="8">
         <v>1</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="9">
+      <c r="H7" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="8">
         <v>3</v>
       </c>
-      <c r="J7" s="9" t="s">
-        <v>89</v>
+      <c r="J7" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="K7" s="4">
         <v>3</v>
@@ -1117,32 +1132,32 @@
       <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="B8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>39</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="9">
+      <c r="H8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="8">
         <v>4</v>
       </c>
-      <c r="J8" s="9" t="s">
-        <v>90</v>
+      <c r="J8" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="K8" s="4">
         <v>4</v>
@@ -1152,32 +1167,32 @@
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>6</v>
       </c>
       <c r="E9" s="6">
         <v>63</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G9" s="6">
         <v>2</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I9" s="6">
         <v>1</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K9" s="4">
         <v>5</v>
@@ -1187,207 +1202,198 @@
       <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="B10" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="8">
         <v>7</v>
       </c>
       <c r="E10" s="6">
         <v>75</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G10" s="6">
         <v>2</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I10" s="6">
         <v>2</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="K10" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="8">
         <v>8</v>
       </c>
-      <c r="E11" s="6">
-        <v>69</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>68</v>
+      <c r="E11" s="4">
+        <v>0</v>
       </c>
       <c r="G11" s="6">
         <v>2</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I11" s="6">
         <v>3</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K11" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="9">
+      <c r="B12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="8">
         <v>9</v>
       </c>
-      <c r="E12" s="6">
-        <v>57</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>92</v>
+      <c r="E12" s="4">
+        <v>0</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="I12" s="6">
         <v>4</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="K12" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="9">
+      <c r="B13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="8">
         <v>10</v>
       </c>
-      <c r="E13" s="12">
-        <v>20</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="12">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="11">
         <v>3</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="H13" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="11">
         <v>1</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="K13" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="9">
+      <c r="B14" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="8">
         <v>11</v>
       </c>
-      <c r="E14" s="12">
-        <v>51</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="12">
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="11">
         <v>3</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="H14" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="11">
         <v>2</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>95</v>
+      <c r="J14" s="11" t="s">
+        <v>86</v>
       </c>
       <c r="K14" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="9">
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="8">
         <v>12</v>
       </c>
-      <c r="E15" s="12">
-        <v>25</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11">
         <v>3</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="11">
         <v>3</v>
       </c>
-      <c r="J15" s="12" t="s">
-        <v>100</v>
+      <c r="J15" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="K15" s="4">
         <v>11</v>
@@ -1397,31 +1403,31 @@
       <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="9">
+      <c r="B16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="8">
         <v>13</v>
       </c>
-      <c r="E16" s="12">
-        <v>7</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="12">
+      <c r="E16" s="6">
+        <v>69</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="11">
         <v>3</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="H16" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="11">
         <v>4</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1429,26 +1435,26 @@
       <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>25</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>48</v>
+      <c r="B17" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="8">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>57</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -1457,14 +1463,86 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="8">
+        <v>15</v>
+      </c>
+      <c r="E18" s="11">
+        <v>20</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4">
+        <v>4</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="8">
+        <v>16</v>
+      </c>
+      <c r="E19" s="11">
+        <v>51</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
+      <c r="B20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="11">
+        <v>25</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="4">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
@@ -1486,78 +1564,110 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
     </row>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1464,7 +1464,9 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
       <c r="B18" s="10" t="s">
         <v>54</v>
       </c>
@@ -1491,7 +1493,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
       <c r="B19" s="10" t="s">
         <v>56</v>
       </c>
@@ -1518,7 +1522,9 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
       <c r="B20" s="10" t="s">
         <v>55</v>
       </c>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -908,7 +908,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="6">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>88</v>
@@ -1212,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="6">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>87</v>
@@ -1413,7 +1413,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="6">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>59</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -524,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -563,6 +563,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -908,7 +911,7 @@
   <dimension ref="A1:K305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B11" sqref="B11:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G11" s="6">
         <v>2</v>
@@ -1279,7 +1282,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="G12" s="6">
         <v>2</v>
@@ -1311,7 +1314,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="F13" s="11" t="s">
         <v>46</v>
@@ -1346,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>45</v>
@@ -1367,11 +1370,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="16" t="s">
         <v>96</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -1381,7 +1384,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G15" s="11">
         <v>3</v>

--- a/docs/excel/PassLevels.xlsx
+++ b/docs/excel/PassLevels.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="112">
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
   </si>
@@ -171,10 +171,6 @@
   </si>
   <si>
     <t>ChapterID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChapterName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -415,6 +411,34 @@
   </si>
   <si>
     <t>Image/GameScene/Pass/pass_10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChapterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chapterimage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image/GameScene/halfbody/13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K305"/>
+  <dimension ref="A1:L305"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B14"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -922,13 +946,14 @@
     <col min="5" max="5" width="8.796875" style="4"/>
     <col min="6" max="6" width="17.59765625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.796875" style="4"/>
-    <col min="8" max="8" width="12.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="4"/>
-    <col min="10" max="10" width="13.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.796875" style="4"/>
+    <col min="8" max="8" width="25" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="4"/>
+    <col min="11" max="11" width="13.5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -951,19 +976,22 @@
         <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -989,15 +1017,18 @@
         <v>26</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1020,21 +1051,24 @@
         <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="8">
         <v>2</v>
@@ -1043,33 +1077,36 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="8">
         <v>1</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I5" s="8">
+        <v>108</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J5" s="8">
         <v>1</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="K5" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D6" s="8">
         <v>3</v>
@@ -1084,19 +1121,22 @@
         <v>1</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I6" s="8">
+        <v>108</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="K6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1104,7 +1144,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="8">
         <v>4</v>
@@ -1113,33 +1153,36 @@
         <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G7" s="8">
         <v>1</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I7" s="8">
+        <v>108</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" s="8">
         <v>3</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="4">
+      <c r="K7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="8">
         <v>5</v>
@@ -1148,33 +1191,36 @@
         <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I8" s="8">
+        <v>109</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="8">
         <v>4</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="4">
+      <c r="K8" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D9" s="8">
         <v>6</v>
@@ -1183,33 +1229,36 @@
         <v>45</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="6">
         <v>2</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="H9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="6">
         <v>1</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L9" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>6</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8">
         <v>7</v>
@@ -1218,33 +1267,36 @@
         <v>69</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" s="6">
         <v>2</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="6">
+      <c r="H10" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="6">
         <v>2</v>
       </c>
-      <c r="J10" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="8">
         <v>8</v>
@@ -1255,28 +1307,31 @@
       <c r="G11" s="6">
         <v>2</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="6">
+      <c r="H11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="6">
         <v>3</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L11" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D12" s="8">
         <v>9</v>
@@ -1287,28 +1342,31 @@
       <c r="G12" s="6">
         <v>2</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I12" s="6">
+      <c r="H12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="J12" s="6">
         <v>4</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L12" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D13" s="8">
         <v>10</v>
@@ -1317,33 +1375,36 @@
         <v>87</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="11">
         <v>3</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="11">
         <v>1</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="8">
         <v>11</v>
@@ -1352,33 +1413,36 @@
         <v>93</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="11">
         <v>3</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="11">
         <v>2</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="4">
+      <c r="K14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>11</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="8">
         <v>12</v>
@@ -1389,28 +1453,31 @@
       <c r="G15" s="11">
         <v>3</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="11">
+      <c r="H15" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="11">
         <v>3</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15" s="4">
+      <c r="K15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8">
         <v>13</v>
@@ -1419,30 +1486,33 @@
         <v>63</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" s="11">
         <v>3</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="H16" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="11">
         <v>4</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="K16" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>13</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="8">
         <v>14</v>
@@ -1451,30 +1521,33 @@
         <v>57</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G17" s="4">
         <v>4</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="H17" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="4">
         <v>1</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="8">
         <v>15</v>
@@ -1488,22 +1561,25 @@
       <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="H18" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="8">
         <v>16</v>
@@ -1512,27 +1588,30 @@
         <v>51</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="H19" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J19" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="8">
         <v>0</v>
@@ -1541,37 +1620,40 @@
         <v>25</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="H20" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
@@ -1579,7 +1661,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -1587,7 +1669,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
@@ -1595,7 +1677,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="15"/>
       <c r="C30" s="14"/>
@@ -1603,7 +1685,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="15"/>
       <c r="C31" s="14"/>
@@ -1611,7 +1693,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
